--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnb02\Documents\GitHub\optimization-pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074CB826-32D3-442B-9BA1-223A981AE0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF1664C-758C-4ABD-9119-06077A21B486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="165" windowWidth="21600" windowHeight="11385" xr2:uid="{4562075E-5FED-4EF8-9270-7E6A2E4D059A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4562075E-5FED-4EF8-9270-7E6A2E4D059A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>rect_count</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>cost</t>
-  </si>
-  <si>
-    <t>n_car_used</t>
   </si>
   <si>
     <t>running_time</t>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>bestfit_maxside</t>
+  </si>
+  <si>
+    <t>Heuristic_guillotine</t>
+  </si>
+  <si>
+    <t>n_truck_used</t>
   </si>
 </sst>
 </file>
@@ -86,21 +89,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -112,90 +106,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -512,3239 +436,3989 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC59DFEE-2973-4CD7-8077-65E10A48382D}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="O23" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="11.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="14" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14" style="5" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>0</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
         <v>350</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="1">
         <v>350</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="1">
         <v>950</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
         <v>1.5625E-2</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="1">
         <v>950</v>
       </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="P4" s="1">
+        <v>950</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="5">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
         <v>350</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>350</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
         <v>0.08</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="1">
         <v>350</v>
       </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
         <v>0</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="1">
         <v>350</v>
       </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
         <v>9.8071098327636701E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="P5" s="1">
+        <v>350</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="5">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>450</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
         <v>0.08</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>450</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
         <v>0.09</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="1">
         <v>450</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="1">
         <v>450</v>
       </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="P6" s="1">
+        <v>450</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5">
+        <v>6.9689750671386697E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="5">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
         <v>0.09</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
         <v>0.12</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="1">
         <v>100</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
         <v>1.77817344665527E-2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="1">
         <v>100</v>
       </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
         <v>6.50906562805175E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="P7" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="5">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>1550</v>
       </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
         <v>0.1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="1">
         <v>1550</v>
       </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
         <v>3.23</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="1">
         <v>1550</v>
       </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
         <v>7.1814060211181597E-3</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="1">
         <v>1550</v>
       </c>
-      <c r="N8" s="1">
-        <v>2</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="N8" s="5">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
         <v>8.0025196075439401E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="P8" s="1">
+        <v>1550</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>2</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="5">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
         <v>900</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
         <v>0.11</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
         <v>900</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
         <v>0.63</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="1">
         <v>1000</v>
       </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
         <v>1.5005826950073201E-2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="1">
         <v>1000</v>
       </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
         <v>1.6614675521850499E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="P9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="5">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>750</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
         <v>0.12</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="1">
         <v>750</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
         <v>0.17</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="1">
         <v>750</v>
       </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
         <v>1.60460472106933E-2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="1">
         <v>750</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
         <v>1.9891500473022398E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="P10" s="1">
+        <v>750</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="5">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="1">
         <v>550</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
         <v>120.11</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="1">
         <v>550</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
         <v>300.16000000000003</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="1">
         <v>700</v>
       </c>
-      <c r="K11" s="1">
-        <v>2</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5">
         <v>1.6489982604980399E-2</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="1">
         <v>700</v>
       </c>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
-      <c r="O11" s="4">
+      <c r="N11" s="5">
+        <v>2</v>
+      </c>
+      <c r="O11" s="5">
         <v>2.8788566589355399E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="P11" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>2</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" s="5">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>4</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1">
         <v>450</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
         <v>0.24</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="1">
         <v>450</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
         <v>0.66</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="1">
         <v>450</v>
       </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
         <v>3.1988143920898403E-2</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="1">
         <v>450</v>
       </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
         <v>3.2439470291137598E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="P12" s="1">
+        <v>450</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
+        <v>7.9972743988037092E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="5">
         <v>14</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <v>1550</v>
       </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
         <v>1.41</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="1">
         <v>1850</v>
       </c>
-      <c r="H13" s="1">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5">
         <v>300.14999999999998</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="1">
         <v>1550</v>
       </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="K13" s="5">
+        <v>2</v>
+      </c>
+      <c r="L13" s="5">
         <v>3.2872438430786098E-2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="1">
         <v>1550</v>
       </c>
-      <c r="N13" s="1">
-        <v>2</v>
-      </c>
-      <c r="O13" s="4">
+      <c r="N13" s="5">
+        <v>2</v>
+      </c>
+      <c r="O13" s="5">
         <v>3.7085056304931599E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="P13" s="1">
+        <v>2250</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>3</v>
+      </c>
+      <c r="R13" s="5">
+        <v>8.0001354217529297E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
       <c r="B14" s="5">
         <v>15</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>6</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="1">
         <v>200</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
         <v>0.3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="1">
         <v>200</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
         <v>3.44</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="1">
         <v>250</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
         <v>5.6622505187988198E-2</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="1">
         <v>250</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
         <v>5.2067518234252902E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="P14" s="1">
+        <v>250</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
       <c r="B15" s="5">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>6</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="1">
         <v>1050</v>
       </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
         <v>120.21</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="1">
         <v>1050</v>
       </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15" s="5">
         <v>300.17</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="1">
         <v>1050</v>
       </c>
-      <c r="K15" s="1">
-        <v>2</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="K15" s="5">
+        <v>2</v>
+      </c>
+      <c r="L15" s="5">
         <v>1.8254995346069301E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="1">
         <v>1050</v>
       </c>
-      <c r="N15" s="1">
-        <v>2</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="N15" s="5">
+        <v>2</v>
+      </c>
+      <c r="O15" s="5">
         <v>3.22840213775634E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="P15" s="1">
+        <v>1050</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>2</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
       <c r="B16" s="5">
         <v>17</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>6</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="1">
         <v>1150</v>
       </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
         <v>120.24</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="1">
         <v>1300</v>
       </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+      <c r="I16" s="5">
         <v>300.16000000000003</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="1">
         <v>1300</v>
       </c>
-      <c r="K16" s="1">
-        <v>2</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="K16" s="5">
+        <v>2</v>
+      </c>
+      <c r="L16" s="5">
         <v>5.4721832275390597E-2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="1">
         <v>1300</v>
       </c>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
-      <c r="O16" s="4">
+      <c r="N16" s="5">
+        <v>2</v>
+      </c>
+      <c r="O16" s="5">
         <v>4.0325164794921799E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="P16" s="1">
+        <v>1300</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
       <c r="B17" s="5">
         <v>18</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>8</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1">
         <v>150</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
         <v>0.4</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="1">
         <v>150</v>
       </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
         <v>9.31</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="1">
         <v>150</v>
       </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4">
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
         <v>8.8456392288207994E-2</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="1">
         <v>150</v>
       </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4">
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
         <v>0.105284690856933</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="P17" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="5">
+        <v>7.9734325408935495E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
       <c r="B18" s="5">
         <v>19</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>9</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="1">
         <v>900</v>
       </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
         <v>120.27</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="1">
         <v>900</v>
       </c>
-      <c r="H18" s="1">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18" s="5">
+        <v>3</v>
+      </c>
+      <c r="I18" s="5">
         <v>300.19</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="1">
         <v>1650</v>
       </c>
-      <c r="K18" s="1">
-        <v>3</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="K18" s="5">
+        <v>3</v>
+      </c>
+      <c r="L18" s="5">
         <v>1.55630111694335E-2</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="1">
         <v>1650</v>
       </c>
-      <c r="N18" s="1">
-        <v>3</v>
-      </c>
-      <c r="O18" s="4">
+      <c r="N18" s="5">
+        <v>3</v>
+      </c>
+      <c r="O18" s="5">
         <v>1.80432796478271E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="P18" s="1">
+        <v>1650</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>3</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>15</v>
       </c>
       <c r="B19" s="5">
         <v>20</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>9</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="1">
         <v>400</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
         <v>120.31</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="1">
         <v>400</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
         <v>300.18</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="1">
         <v>400</v>
       </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4">
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
         <v>0.15220308303832999</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="1">
         <v>400</v>
       </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
-      <c r="O19" s="4">
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
         <v>0.119675159454345</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="P19" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>16</v>
       </c>
       <c r="B20" s="5">
         <v>21</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>8</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="1">
         <v>950</v>
       </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
         <v>120.32</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="1">
         <v>950</v>
       </c>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5">
         <v>300.19</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="1">
         <v>950</v>
       </c>
-      <c r="K20" s="1">
-        <v>2</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="K20" s="5">
+        <v>2</v>
+      </c>
+      <c r="L20" s="5">
         <v>4.0866374969482401E-2</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="1">
         <v>950</v>
       </c>
-      <c r="N20" s="1">
-        <v>2</v>
-      </c>
-      <c r="O20" s="4">
+      <c r="N20" s="5">
+        <v>2</v>
+      </c>
+      <c r="O20" s="5">
         <v>6.5558671951293904E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="P20" s="1">
+        <v>950</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>2</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>17</v>
       </c>
       <c r="B21" s="5">
         <v>22</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>8</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="1">
         <v>350</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
         <v>0.53</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="1">
         <v>350</v>
       </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
         <v>42.61</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="1">
         <v>350</v>
       </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
         <v>0.214237689971923</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="1">
         <v>350</v>
       </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
         <v>0.184018850326538</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="P21" s="1">
+        <v>350</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>18</v>
       </c>
       <c r="B22" s="5">
         <v>23</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>8</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="1">
         <v>750</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
         <v>0.52</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="1">
         <v>750</v>
       </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
         <v>77.97</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="1">
         <v>750</v>
       </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
         <v>0.19815969467163</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="1">
         <v>750</v>
       </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4">
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
         <v>0.188254594802856</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="P22" s="1">
+        <v>750</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="5">
+        <v>7.9944133758544905E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>19</v>
       </c>
       <c r="B23" s="5">
         <v>24</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5">
         <v>9</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="1">
         <v>100</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
         <v>0.54</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="1">
         <v>100</v>
       </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
         <v>130.52000000000001</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="1">
         <v>100</v>
       </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4">
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
         <v>0.27663135528564398</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="1">
         <v>100</v>
       </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
-      <c r="O23" s="4">
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
         <v>0.27694606781005798</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="P23" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>20</v>
       </c>
       <c r="B24" s="5">
         <v>25</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>10</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="1">
         <v>400</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
         <v>0.59</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="1">
         <v>1000</v>
       </c>
-      <c r="H24" s="1">
-        <v>2</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="5">
         <v>300.27</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="1">
         <v>400</v>
       </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="4">
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
         <v>0.32382392883300698</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="1">
         <v>400</v>
       </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="4">
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
         <v>0.37213706970214799</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="P24" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>1</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>21</v>
       </c>
       <c r="B25" s="5">
         <v>26</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <v>10</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="1">
         <v>500</v>
       </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5">
         <v>120.37</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="1">
         <v>950</v>
       </c>
-      <c r="H25" s="1">
-        <v>3</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="H25" s="5">
+        <v>3</v>
+      </c>
+      <c r="I25" s="5">
         <v>300.27999999999997</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="1">
         <v>800</v>
       </c>
-      <c r="K25" s="1">
-        <v>2</v>
-      </c>
-      <c r="L25" s="4">
+      <c r="K25" s="5">
+        <v>2</v>
+      </c>
+      <c r="L25" s="5">
         <v>8.1801891326904297E-2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="1">
         <v>800</v>
       </c>
-      <c r="N25" s="1">
-        <v>2</v>
-      </c>
-      <c r="O25" s="4">
+      <c r="N25" s="5">
+        <v>2</v>
+      </c>
+      <c r="O25" s="5">
         <v>7.1974515914916895E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="P25" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>2</v>
+      </c>
+      <c r="R25" s="5">
+        <v>8.1205368041992101E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>22</v>
       </c>
       <c r="B26" s="5">
         <v>27</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5">
         <v>10</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="1">
         <v>350</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
         <v>0.86</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="1">
         <v>3350</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="5">
         <v>5</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="5">
         <v>300.31</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="1">
         <v>350</v>
       </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5">
         <v>0.54922890663146895</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="1">
         <v>350</v>
       </c>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4">
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5">
         <v>0.40859675407409601</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="P26" s="1">
+        <v>350</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>23</v>
       </c>
       <c r="B27" s="5">
         <v>28</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>9</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="1">
         <v>600</v>
       </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5">
         <v>120.43</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="1">
         <v>3350</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="5">
         <v>5</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="5">
         <v>300.31</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="1">
         <v>700</v>
       </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="4">
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
         <v>0.52473020553588801</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="1">
         <v>700</v>
       </c>
-      <c r="N27" s="1">
-        <v>1</v>
-      </c>
-      <c r="O27" s="4">
+      <c r="N27" s="5">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5">
         <v>0.47460985183715798</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="P27" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1</v>
+      </c>
+      <c r="R27" s="5">
+        <v>7.9960823059081997E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>24</v>
       </c>
       <c r="B28" s="5">
         <v>29</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>11</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="1">
         <v>150</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
         <v>0.85</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="1">
         <v>150</v>
       </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4">
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
         <v>262.91000000000003</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="1">
         <v>150</v>
       </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5">
         <v>0.473195791244506</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="1">
         <v>150</v>
       </c>
-      <c r="N28" s="1">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4">
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
         <v>0.40559887886047302</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="P28" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1</v>
+      </c>
+      <c r="R28" s="5">
+        <v>8.0680847167968698E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>25</v>
       </c>
       <c r="B29" s="5">
         <v>30</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>11</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="1">
         <v>900</v>
       </c>
-      <c r="E29" s="1">
-        <v>3</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5">
         <v>120.5</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="1">
         <v>1450</v>
       </c>
-      <c r="H29" s="1">
-        <v>3</v>
-      </c>
-      <c r="I29" s="4">
+      <c r="H29" s="5">
+        <v>3</v>
+      </c>
+      <c r="I29" s="5">
         <v>300.35000000000002</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="1">
         <v>900</v>
       </c>
-      <c r="K29" s="1">
-        <v>3</v>
-      </c>
-      <c r="L29" s="4">
+      <c r="K29" s="5">
+        <v>3</v>
+      </c>
+      <c r="L29" s="5">
         <v>4.8481702804565402E-2</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="1">
         <v>900</v>
       </c>
-      <c r="N29" s="1">
-        <v>3</v>
-      </c>
-      <c r="O29" s="4">
+      <c r="N29" s="5">
+        <v>3</v>
+      </c>
+      <c r="O29" s="5">
         <v>6.4703464508056599E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="P29" s="1">
+        <v>900</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>3</v>
+      </c>
+      <c r="R29" s="5">
+        <v>7.9960823059081997E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>26</v>
       </c>
       <c r="B30" s="5">
         <v>31</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>10</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="1">
         <v>550</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
         <v>6.16</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="1">
         <v>2400</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="5">
         <v>5</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="5">
         <v>300.35000000000002</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="1">
         <v>550</v>
       </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30" s="4">
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5">
         <v>0.82021665573120095</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="1">
         <v>550</v>
       </c>
-      <c r="N30" s="1">
-        <v>1</v>
-      </c>
-      <c r="O30" s="4">
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
         <v>0.52071070671081499</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="P30" s="1">
+        <v>550</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1</v>
+      </c>
+      <c r="R30" s="5">
+        <v>1.5623331069946201E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>27</v>
       </c>
       <c r="B31" s="5">
         <v>32</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <v>12</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="1">
         <v>1200</v>
       </c>
-      <c r="E31" s="1">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5">
         <v>120.61</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="1">
         <v>4550</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="5">
         <v>8</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="5">
         <v>300.39999999999998</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="1">
         <v>1200</v>
       </c>
-      <c r="K31" s="1">
-        <v>2</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="K31" s="5">
+        <v>2</v>
+      </c>
+      <c r="L31" s="5">
         <v>0.32891488075256298</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="1">
         <v>1200</v>
       </c>
-      <c r="N31" s="1">
-        <v>2</v>
-      </c>
-      <c r="O31" s="4">
+      <c r="N31" s="5">
+        <v>2</v>
+      </c>
+      <c r="O31" s="5">
         <v>0.29702687263488697</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="P31" s="1">
+        <v>1200</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>2</v>
+      </c>
+      <c r="R31" s="5">
+        <v>7.9977512359619106E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>28</v>
       </c>
       <c r="B32" s="5">
         <v>33</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5">
         <v>14</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="1">
         <v>350</v>
       </c>
-      <c r="E32" s="1">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="5">
         <v>120.62</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="1">
         <v>7550</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="5">
         <v>14</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="5">
         <v>300.42</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="1">
         <v>350</v>
       </c>
-      <c r="K32" s="1">
-        <v>2</v>
-      </c>
-      <c r="L32" s="4">
+      <c r="K32" s="5">
+        <v>2</v>
+      </c>
+      <c r="L32" s="5">
         <v>0.13459420204162501</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="1">
         <v>350</v>
       </c>
-      <c r="N32" s="1">
-        <v>2</v>
-      </c>
-      <c r="O32" s="4">
+      <c r="N32" s="5">
+        <v>2</v>
+      </c>
+      <c r="O32" s="5">
         <v>0.13619184494018499</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="P32" s="1">
+        <v>350</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>2</v>
+      </c>
+      <c r="R32" s="5">
+        <v>4.7686100006103498E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>29</v>
       </c>
       <c r="B33" s="5">
         <v>34</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5">
         <v>12</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="1">
         <v>750</v>
       </c>
-      <c r="E33" s="1">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5">
         <v>120.64</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="1">
         <v>5100</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="5">
         <v>11</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="5">
         <v>300.41000000000003</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="1">
         <v>750</v>
       </c>
-      <c r="K33" s="1">
-        <v>2</v>
-      </c>
-      <c r="L33" s="4">
+      <c r="K33" s="5">
+        <v>2</v>
+      </c>
+      <c r="L33" s="5">
         <v>0.47408032417297302</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="1">
         <v>750</v>
       </c>
-      <c r="N33" s="1">
-        <v>2</v>
-      </c>
-      <c r="O33" s="4">
+      <c r="N33" s="5">
+        <v>2</v>
+      </c>
+      <c r="O33" s="5">
         <v>0.304325580596923</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="P33" s="1">
+        <v>750</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>2</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>30</v>
       </c>
       <c r="B34" s="5">
         <v>35</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="5">
         <v>11</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="1">
         <v>1550</v>
       </c>
-      <c r="E34" s="1">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" s="5">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5">
         <v>120.64</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="1">
         <v>4500</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="5">
         <v>7</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="5">
         <v>300.43</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="1">
         <v>1600</v>
       </c>
-      <c r="K34" s="1">
-        <v>3</v>
-      </c>
-      <c r="L34" s="4">
+      <c r="K34" s="5">
+        <v>3</v>
+      </c>
+      <c r="L34" s="5">
         <v>9.36126708984375E-2</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="1">
         <v>1600</v>
       </c>
-      <c r="N34" s="1">
-        <v>3</v>
-      </c>
-      <c r="O34" s="4">
+      <c r="N34" s="5">
+        <v>3</v>
+      </c>
+      <c r="O34" s="5">
         <v>8.8963270187377902E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="P34" s="1">
+        <v>1600</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>3</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>31</v>
       </c>
       <c r="B35" s="5">
         <v>36</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5">
         <v>12</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="1">
         <v>1200</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="5">
         <v>4</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="5">
         <v>120.71</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="1">
         <v>5650</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="5">
         <v>11</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="5">
         <v>300.42</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="1">
         <v>1200</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="5">
         <v>4</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="5">
         <v>5.0218343734741197E-2</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="1">
         <v>1200</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="5">
         <v>4</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="5">
         <v>6.4089775085449205E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="P35" s="1">
+        <v>1200</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>4</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>32</v>
       </c>
       <c r="B36" s="5">
         <v>37</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5">
         <v>12</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="1">
         <v>750</v>
       </c>
-      <c r="E36" s="1">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" s="5">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5">
         <v>120.71</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="1">
         <v>3850</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="5">
         <v>8</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="5">
         <v>300.47000000000003</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="1">
         <v>900</v>
       </c>
-      <c r="K36" s="1">
-        <v>3</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="K36" s="5">
+        <v>3</v>
+      </c>
+      <c r="L36" s="5">
         <v>0.112106800079345</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="1">
         <v>900</v>
       </c>
-      <c r="N36" s="1">
-        <v>3</v>
-      </c>
-      <c r="O36" s="4">
+      <c r="N36" s="5">
+        <v>3</v>
+      </c>
+      <c r="O36" s="5">
         <v>0.12722945213317799</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="P36" s="1">
+        <v>900</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>3</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>33</v>
       </c>
       <c r="B37" s="5">
         <v>38</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <v>12</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="1">
         <v>1050</v>
       </c>
-      <c r="E37" s="1">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E37" s="5">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5">
         <v>120.74</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="1">
         <v>4600</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="5">
         <v>9</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="5">
         <v>300.60000000000002</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="1">
         <v>1050</v>
       </c>
-      <c r="K37" s="1">
-        <v>3</v>
-      </c>
-      <c r="L37" s="4">
+      <c r="K37" s="5">
+        <v>3</v>
+      </c>
+      <c r="L37" s="5">
         <v>0.15821266174316401</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="1">
         <v>1050</v>
       </c>
-      <c r="N37" s="1">
-        <v>3</v>
-      </c>
-      <c r="O37" s="4">
+      <c r="N37" s="5">
+        <v>3</v>
+      </c>
+      <c r="O37" s="5">
         <v>0.230632543563842</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="P37" s="1">
+        <v>1050</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>3</v>
+      </c>
+      <c r="R37" s="5">
+        <v>8.0368518829345703E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>34</v>
       </c>
       <c r="B38" s="5">
         <v>39</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="5">
         <v>16</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="1">
         <v>2850</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="5">
         <v>5</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="5">
         <v>120.81</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="1">
         <v>9800</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="5">
         <v>15</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="5">
         <v>300.73</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="1">
         <v>3200</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="5">
         <v>5</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="5">
         <v>6.3922405242919894E-2</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="1">
         <v>3200</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="5">
         <v>5</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="5">
         <v>5.5633544921875E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="P38" s="1">
+        <v>3200</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>5</v>
+      </c>
+      <c r="R38" s="5">
+        <v>7.99560546875E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>35</v>
       </c>
       <c r="B39" s="5">
         <v>40</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="5">
         <v>14</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="1">
         <v>1250</v>
       </c>
-      <c r="E39" s="1">
-        <v>3</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="E39" s="5">
+        <v>3</v>
+      </c>
+      <c r="F39" s="5">
         <v>120.84</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="1">
         <v>8000</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="5">
         <v>13</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="5">
         <v>300.52</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="1">
         <v>1250</v>
       </c>
-      <c r="K39" s="1">
-        <v>3</v>
-      </c>
-      <c r="L39" s="4">
+      <c r="K39" s="5">
+        <v>3</v>
+      </c>
+      <c r="L39" s="5">
         <v>0.168774604797363</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="1">
         <v>1250</v>
       </c>
-      <c r="N39" s="1">
-        <v>3</v>
-      </c>
-      <c r="O39" s="4">
+      <c r="N39" s="5">
+        <v>3</v>
+      </c>
+      <c r="O39" s="5">
         <v>0.14435958862304599</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="P39" s="1">
+        <v>1250</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>3</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>36</v>
       </c>
       <c r="B40" s="5">
         <v>41</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="5">
         <v>15</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="1">
         <v>600</v>
       </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
         <v>11.59</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="5">
         <v>300.68</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="1">
         <v>600</v>
       </c>
-      <c r="K40" s="1">
-        <v>1</v>
-      </c>
-      <c r="L40" s="4">
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
         <v>1.11755347251892</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="1">
         <v>600</v>
       </c>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
-      <c r="O40" s="4">
+      <c r="N40" s="5">
+        <v>1</v>
+      </c>
+      <c r="O40" s="5">
         <v>0.98011660575866699</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="P40" s="1">
+        <v>600</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>37</v>
       </c>
       <c r="B41" s="5">
         <v>42</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5">
         <v>14</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="1">
         <v>700</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="5">
         <v>4</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="5">
         <v>120.96</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="5">
         <v>301.05</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="1">
         <v>700</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="5">
         <v>4</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="5">
         <v>0.111544847488403</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="1">
         <v>700</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="5">
         <v>4</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="5">
         <v>0.120578050613403</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="P41" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>4</v>
+      </c>
+      <c r="R41" s="5">
+        <v>8.5062980651855399E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>38</v>
       </c>
       <c r="B42" s="5">
         <v>43</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="5">
         <v>17</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="1">
         <v>1050</v>
       </c>
-      <c r="E42" s="1">
-        <v>3</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" s="5">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5">
         <v>121.05</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="1">
         <v>5000</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="5">
         <v>10</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="5">
         <v>300.61</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="1">
         <v>1100</v>
       </c>
-      <c r="K42" s="1">
-        <v>3</v>
-      </c>
-      <c r="L42" s="4">
+      <c r="K42" s="5">
+        <v>3</v>
+      </c>
+      <c r="L42" s="5">
         <v>0.13895606994628901</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="1">
         <v>1100</v>
       </c>
-      <c r="N42" s="1">
-        <v>3</v>
-      </c>
-      <c r="O42" s="4">
+      <c r="N42" s="5">
+        <v>3</v>
+      </c>
+      <c r="O42" s="5">
         <v>0.15325903892517001</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="P42" s="1">
+        <v>1100</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>3</v>
+      </c>
+      <c r="R42" s="5">
+        <v>2.50601768493652E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>39</v>
       </c>
       <c r="B43" s="5">
         <v>44</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="5">
         <v>18</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="1">
         <v>400</v>
       </c>
-      <c r="E43" s="1">
-        <v>2</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E43" s="5">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5">
         <v>121.13</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="1">
         <v>3150</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="5">
         <v>6</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="5">
         <v>300.68</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="1">
         <v>1000</v>
       </c>
-      <c r="K43" s="1">
-        <v>2</v>
-      </c>
-      <c r="L43" s="4">
+      <c r="K43" s="5">
+        <v>2</v>
+      </c>
+      <c r="L43" s="5">
         <v>1.6239213943481401</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="1">
         <v>1000</v>
       </c>
-      <c r="N43" s="1">
-        <v>2</v>
-      </c>
-      <c r="O43" s="4">
+      <c r="N43" s="5">
+        <v>2</v>
+      </c>
+      <c r="O43" s="5">
         <v>0.896453857421875</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="P43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>2</v>
+      </c>
+      <c r="R43" s="5">
+        <v>8.0020427703857405E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>40</v>
       </c>
       <c r="B44" s="5">
         <v>45</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="5">
         <v>17</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="1">
         <v>950</v>
       </c>
-      <c r="E44" s="1">
-        <v>3</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="E44" s="5">
+        <v>3</v>
+      </c>
+      <c r="F44" s="5">
         <v>121.01</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="5">
         <v>300.64</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="1">
         <v>950</v>
       </c>
-      <c r="K44" s="1">
-        <v>3</v>
-      </c>
-      <c r="L44" s="4">
+      <c r="K44" s="5">
+        <v>3</v>
+      </c>
+      <c r="L44" s="5">
         <v>0.17892622947692799</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="1">
         <v>950</v>
       </c>
-      <c r="N44" s="1">
-        <v>3</v>
-      </c>
-      <c r="O44" s="4">
+      <c r="N44" s="5">
+        <v>3</v>
+      </c>
+      <c r="O44" s="5">
         <v>0.18757510185241699</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="P44" s="1">
+        <v>950</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>3</v>
+      </c>
+      <c r="R44" s="4">
+        <v>8.0509185791015608E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>41</v>
       </c>
       <c r="B45" s="5">
         <v>46</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="5">
         <v>17</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="1">
         <v>1150</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="5">
         <v>4</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="5">
         <v>121.04</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="5">
         <v>300.7</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="1">
         <v>1150</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="5">
         <v>4</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="5">
         <v>0.258141279220581</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="1">
         <v>1150</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="5">
         <v>4</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="5">
         <v>0.213180541992187</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="P45" s="1">
+        <v>1150</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>4</v>
+      </c>
+      <c r="R45" s="5">
+        <v>7.99560546875E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>42</v>
       </c>
       <c r="B46" s="5">
         <v>47</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="5">
         <v>16</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="1">
         <v>650</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="5">
         <v>4</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="5">
         <v>121.08</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="1">
         <v>7400</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="5">
         <v>16</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="5">
         <v>300.68</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="1">
         <v>700</v>
       </c>
-      <c r="K46" s="1">
-        <v>3</v>
-      </c>
-      <c r="L46" s="4">
+      <c r="K46" s="5">
+        <v>3</v>
+      </c>
+      <c r="L46" s="5">
         <v>0.221103429794311</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="1">
         <v>700</v>
       </c>
-      <c r="N46" s="1">
-        <v>3</v>
-      </c>
-      <c r="O46" s="4">
+      <c r="N46" s="5">
+        <v>3</v>
+      </c>
+      <c r="O46" s="5">
         <v>0.17397356033325101</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="P46" s="1">
+        <v>700</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>3</v>
+      </c>
+      <c r="R46" s="5">
+        <v>7.9946517944335903E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>43</v>
       </c>
       <c r="B47" s="5">
         <v>48</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="5">
         <v>18</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="1">
         <v>1000</v>
       </c>
-      <c r="E47" s="1">
-        <v>3</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="E47" s="5">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5">
         <v>121.13</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="5">
         <v>300.81</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="1">
         <v>1250</v>
       </c>
-      <c r="K47" s="1">
-        <v>3</v>
-      </c>
-      <c r="L47" s="4">
+      <c r="K47" s="5">
+        <v>3</v>
+      </c>
+      <c r="L47" s="5">
         <v>0.55679678916931097</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="1">
         <v>1250</v>
       </c>
-      <c r="N47" s="1">
-        <v>3</v>
-      </c>
-      <c r="O47" s="4">
+      <c r="N47" s="5">
+        <v>3</v>
+      </c>
+      <c r="O47" s="5">
         <v>0.49466395378112699</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="P47" s="1">
+        <v>1250</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>3</v>
+      </c>
+      <c r="R47" s="5">
+        <v>8.0561637878417899E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>44</v>
       </c>
       <c r="B48" s="5">
         <v>49</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="5">
         <v>15</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="1">
         <v>600</v>
       </c>
-      <c r="E48" s="1">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="E48" s="5">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5">
         <v>121.18</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="5">
         <v>302.51</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="1">
         <v>600</v>
       </c>
-      <c r="K48" s="1">
-        <v>3</v>
-      </c>
-      <c r="L48" s="4">
+      <c r="K48" s="5">
+        <v>3</v>
+      </c>
+      <c r="L48" s="5">
         <v>0.24128603935241699</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="1">
         <v>600</v>
       </c>
-      <c r="N48" s="1">
-        <v>3</v>
-      </c>
-      <c r="O48" s="4">
+      <c r="N48" s="5">
+        <v>3</v>
+      </c>
+      <c r="O48" s="5">
         <v>0.26044774055480902</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="P48" s="1">
+        <v>600</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>3</v>
+      </c>
+      <c r="R48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>45</v>
       </c>
       <c r="B49" s="5">
         <v>50</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="5">
         <v>18</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="1">
         <v>1750</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="5">
         <v>5</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="5">
         <v>121.22</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="5">
         <v>302.52999999999997</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="1">
         <v>1750</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="5">
         <v>5</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="5">
         <v>7.9961299896240207E-2</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="1">
         <v>1750</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="5">
         <v>5</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="5">
         <v>9.7414970397949205E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="P49" s="1">
+        <v>1750</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>5</v>
+      </c>
+      <c r="R49" s="5">
+        <v>7.0984363555908203E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>46</v>
       </c>
       <c r="B50" s="5">
         <v>51</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="5">
         <v>18</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="1">
         <v>1750</v>
       </c>
-      <c r="E50" s="1">
-        <v>3</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="5">
         <v>121.23</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="5">
         <v>303.14999999999998</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="1">
         <v>2000</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="5">
         <v>5</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="5">
         <v>0.23130893707275299</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="1">
         <v>2000</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50" s="5">
         <v>5</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="5">
         <v>0.19465613365173301</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="P50" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>5</v>
+      </c>
+      <c r="R50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>47</v>
       </c>
       <c r="B51" s="5">
         <v>52</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="5">
         <v>17</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="1">
         <v>1500</v>
       </c>
-      <c r="E51" s="1">
-        <v>3</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="E51" s="5">
+        <v>3</v>
+      </c>
+      <c r="F51" s="5">
         <v>121.26</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="5">
         <v>301.16000000000003</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="1">
         <v>1750</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="5">
         <v>4</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="5">
         <v>0.33212327957153298</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="1">
         <v>1750</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51" s="5">
         <v>4</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="5">
         <v>0.23920893669128401</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="P51" s="1">
+        <v>1750</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>4</v>
+      </c>
+      <c r="R51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>48</v>
       </c>
       <c r="B52" s="5">
         <v>53</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="5">
         <v>20</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="1">
         <v>650</v>
       </c>
-      <c r="E52" s="1">
-        <v>2</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="E52" s="5">
+        <v>2</v>
+      </c>
+      <c r="F52" s="5">
         <v>121.39</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="1">
         <v>12300</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="5">
         <v>20</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="5">
         <v>301.11</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="1">
         <v>950</v>
       </c>
-      <c r="K52" s="1">
-        <v>2</v>
-      </c>
-      <c r="L52" s="4">
+      <c r="K52" s="5">
+        <v>2</v>
+      </c>
+      <c r="L52" s="5">
         <v>1.87067890167236</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="1">
         <v>950</v>
       </c>
-      <c r="N52" s="1">
-        <v>2</v>
-      </c>
-      <c r="O52" s="4">
+      <c r="N52" s="5">
+        <v>2</v>
+      </c>
+      <c r="O52" s="5">
         <v>1.45661973953247</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="P52" s="1">
+        <v>950</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>2</v>
+      </c>
+      <c r="R52" s="5">
+        <v>7.9994201660156198E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>49</v>
       </c>
       <c r="B53" s="5">
         <v>54</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="5">
         <v>18</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="1">
         <v>2350</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="5">
         <v>5</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="5">
         <v>121.35</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="1">
         <v>2600</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="5">
         <v>5</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="5">
         <v>0.12690281867980899</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="1">
         <v>2600</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53" s="5">
         <v>5</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="5">
         <v>0.17313265800475999</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="P53" s="1">
+        <v>2600</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>5</v>
+      </c>
+      <c r="R53" s="5">
+        <v>1.4503955841064399E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>50</v>
       </c>
       <c r="B54" s="5">
         <v>60</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="5">
         <v>23</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="1">
         <v>2100</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="5">
         <v>5</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="5">
         <v>121.67</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="1">
         <v>2550</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="5">
         <v>6</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="5">
         <v>0.269402265548706</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="1">
         <v>2550</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54" s="5">
         <v>6</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O54" s="5">
         <v>0.21546435356140101</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="P54" s="1">
+        <v>2550</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>6</v>
+      </c>
+      <c r="R54" s="5">
+        <v>1.56292915344238E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>51</v>
       </c>
       <c r="B55" s="5">
         <v>90</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="5">
         <v>29</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="1">
         <v>1050</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="5">
         <v>6</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="5">
         <v>123.27</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="1">
         <v>1150</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="5">
         <v>5</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="5">
         <v>0.78425431251525801</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="1">
         <v>1150</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55" s="5">
         <v>5</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="5">
         <v>0.52662611007690396</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="P55" s="1">
+        <v>1150</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>5</v>
+      </c>
+      <c r="R55" s="5">
+        <v>2.71449089050292E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>52</v>
       </c>
       <c r="B56" s="5">
         <v>120</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="5">
         <v>44</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="1">
         <v>3050</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="5">
         <v>8</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="5">
         <v>125.76</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="1">
         <v>2300</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="5">
         <v>7</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="5">
         <v>0.92298817634582497</v>
       </c>
-      <c r="M56" s="5">
+      <c r="M56" s="1">
         <v>2300</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56" s="5">
         <v>7</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="5">
         <v>0.83242130279541005</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="P56" s="1">
+        <v>2300</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>7</v>
+      </c>
+      <c r="R56" s="5">
+        <v>4.6868324279785101E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>53</v>
       </c>
       <c r="B57" s="5">
         <v>150</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5">
         <v>53</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="1">
         <v>4700</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="5">
         <v>12</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="5">
         <v>128.72999999999999</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="1">
         <v>3700</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57" s="5">
         <v>12</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="5">
         <v>0.59291815757751398</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M57" s="1">
         <v>3700</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57" s="5">
         <v>12</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="5">
         <v>0.53482222557067804</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="P57" s="1">
+        <v>3700</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>12</v>
+      </c>
+      <c r="R57" s="4">
+        <v>7.2292566299438393E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>54</v>
       </c>
       <c r="B58" s="5">
         <v>180</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="5">
         <v>64</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="1">
         <v>3100</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="5">
         <v>10</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="5">
         <v>132.62</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="1">
         <v>1700</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="5">
         <v>7</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="5">
         <v>3.0679831504821702</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="1">
         <v>1700</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58" s="5">
         <v>7</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O58" s="5">
         <v>2.8116312026977499</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="P58" s="1">
+        <v>1700</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>7</v>
+      </c>
+      <c r="R58" s="5">
+        <v>9.4929695129394503E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>55</v>
       </c>
       <c r="B59" s="5">
         <v>210</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="5">
         <v>72</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="1">
         <v>7850</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="5">
         <v>20</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="5">
         <v>137.80000000000001</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="1">
         <v>4200</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="5">
         <v>15</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="5">
         <v>2.9168620109558101</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="1">
         <v>4200</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59" s="5">
         <v>15</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O59" s="5">
         <v>1.77552819252014</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="P59" s="1">
+        <v>4200</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>15</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0.105751991271972</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>56</v>
       </c>
       <c r="B60" s="5">
         <v>240</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="5">
         <v>81</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="1">
         <v>6400</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="5">
         <v>12</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="5">
         <v>142.27000000000001</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="1">
         <v>3450</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="5">
         <v>8</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="5">
         <v>12.2036471366882</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="1">
         <v>3450</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N60" s="5">
         <v>8</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="5">
         <v>9.3271555900573695</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="P60" s="1">
+        <v>3450</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>8</v>
+      </c>
+      <c r="R60" s="5">
+        <v>0.17430996894836401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>57</v>
       </c>
       <c r="B61" s="5">
         <v>270</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="5">
         <v>93</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="1">
         <v>9600</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="5">
         <v>17</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="5">
         <v>147.97</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="1">
         <v>6050</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" s="5">
         <v>17</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="5">
         <v>2.0350496768951398</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="1">
         <v>6050</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N61" s="5">
         <v>17</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O61" s="5">
         <v>2.1202361583709699</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="P61" s="1">
+        <v>6050</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>17</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0.20695829391479401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>58</v>
       </c>
       <c r="B62" s="5">
         <v>300</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="5">
         <v>110</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="1">
         <v>35650</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="5">
         <v>60</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="5">
         <v>155.31</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="1">
         <v>4450</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62" s="5">
         <v>13</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="5">
         <v>5.8635289669036803</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="1">
         <v>4450</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62" s="5">
         <v>13</v>
       </c>
-      <c r="O62" s="4">
+      <c r="O62" s="5">
         <v>4.8485727310180602</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="P62" s="1">
+        <v>4450</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>13</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0.26171517372131298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>59</v>
       </c>
       <c r="B63" s="5">
         <v>330</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="5">
         <v>110</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="1">
         <v>32700</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="5">
         <v>64</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="5">
         <v>161.76</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="1">
         <v>4000</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="5">
         <v>16</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="5">
         <v>3.9088551998138401</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="1">
         <v>4000</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N63" s="5">
         <v>16</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O63" s="5">
         <v>4.4992568492889404</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="P63" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>16</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0.34276914596557601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>60</v>
       </c>
       <c r="B64" s="5">
         <v>350</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="5">
         <v>122</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="1">
         <v>36450</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="5">
         <v>65</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="5">
         <v>167.71</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="1">
         <v>3150</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64" s="5">
         <v>12</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="5">
         <v>9.1458933353424001</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="1">
         <v>3150</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64" s="5">
         <v>12</v>
       </c>
-      <c r="O64" s="4">
+      <c r="O64" s="5">
         <v>10.355041980743399</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="P64" s="1">
+        <v>3150</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>12</v>
+      </c>
+      <c r="R64" s="5">
+        <v>0.35789012908935502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>61</v>
       </c>
       <c r="B65" s="5">
         <v>400</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="5">
         <v>135</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="5">
         <v>187.9</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="1">
         <v>5950</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="5">
         <v>22</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="5">
         <v>4.0520946979522696</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="1">
         <v>5950</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N65" s="5">
         <v>22</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O65" s="5">
         <v>8.49155592918396</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="P65" s="1">
+        <v>5950</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>22</v>
+      </c>
+      <c r="R65" s="5">
+        <v>0.489820957183837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>62</v>
       </c>
       <c r="B66" s="5">
         <v>450</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="5">
         <v>158</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="5">
         <v>204.39</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="1">
         <v>6150</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66" s="5">
         <v>21</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="5">
         <v>19.765985965728699</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="1">
         <v>6150</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66" s="5">
         <v>21</v>
       </c>
-      <c r="O66" s="4">
+      <c r="O66" s="5">
         <v>19.923151731491</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="P66" s="1">
+        <v>6150</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>21</v>
+      </c>
+      <c r="R66" s="5">
+        <v>0.81455516815185502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>63</v>
       </c>
       <c r="B67" s="5">
         <v>500</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="5">
         <v>167</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="5">
         <v>222.52</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="1">
         <v>8400</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67" s="5">
         <v>35</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L67" s="5">
         <v>6.2853517532348597</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="1">
         <v>8400</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67" s="5">
         <v>35</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O67" s="5">
         <v>6.5553848743438703</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="P67" s="1">
+        <v>8400</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>35</v>
+      </c>
+      <c r="R67" s="5">
+        <v>0.69761443138122503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>64</v>
       </c>
       <c r="B68" s="5">
         <v>550</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="5">
         <v>196</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="5">
         <v>234.08</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" s="1">
         <v>6850</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68" s="5">
         <v>27</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L68" s="5">
         <v>12.994129419326701</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="1">
         <v>6850</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N68" s="5">
         <v>27</v>
       </c>
-      <c r="O68" s="4">
+      <c r="O68" s="5">
         <v>14.8209643363952</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="P68" s="1">
+        <v>6850</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>27</v>
+      </c>
+      <c r="R68" s="5">
+        <v>0.83691072463989202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>65</v>
       </c>
       <c r="B69" s="5">
         <v>600</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="5">
         <v>200</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="5">
         <v>252.43</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="1">
         <v>8250</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69" s="5">
         <v>29</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69" s="5">
         <v>20.524022579193101</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="1">
         <v>8250</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69" s="5">
         <v>29</v>
       </c>
-      <c r="O69" s="4">
+      <c r="O69" s="5">
         <v>17.382525444030701</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="P69" s="1">
+        <v>8250</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>29</v>
+      </c>
+      <c r="R69" s="5">
+        <v>1.1232097148895199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>66</v>
       </c>
       <c r="B70" s="5">
         <v>650</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="5">
         <v>231</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="5">
         <v>289.77</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="1">
         <v>7150</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70" s="5">
         <v>28</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L70" s="5">
         <v>80.107158422469993</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="1">
         <v>7150</v>
       </c>
-      <c r="N70" s="1">
+      <c r="N70" s="5">
         <v>28</v>
       </c>
-      <c r="O70" s="4">
+      <c r="O70" s="5">
         <v>46.551673173904398</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="P70" s="1">
+        <v>7150</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>28</v>
+      </c>
+      <c r="R70" s="5">
+        <v>1.32506299018859</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
         <v>67</v>
       </c>
       <c r="B71" s="5">
         <v>700</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="5">
         <v>239</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="5">
         <v>321.14999999999998</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="1">
         <v>8800</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71" s="5">
         <v>34</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L71" s="5">
         <v>27.131642103195102</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="1">
         <v>8800</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N71" s="5">
         <v>34</v>
       </c>
-      <c r="O71" s="4">
+      <c r="O71" s="5">
         <v>8.2893795967101997</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="P71" s="1">
+        <v>8800</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>34</v>
+      </c>
+      <c r="R71" s="5">
+        <v>1.72599124908447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>68</v>
       </c>
       <c r="B72" s="5">
         <v>750</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="5">
         <v>250</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="5">
         <v>351.54</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="1">
         <v>13350</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72" s="5">
         <v>42</v>
       </c>
-      <c r="L72" s="4">
+      <c r="L72" s="5">
         <v>21.3888595104217</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="1">
         <v>13350</v>
       </c>
-      <c r="N72" s="1">
+      <c r="N72" s="5">
         <v>42</v>
       </c>
-      <c r="O72" s="4">
+      <c r="O72" s="5">
         <v>6.6320731639861998</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="P72" s="1">
+        <v>13350</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>42</v>
+      </c>
+      <c r="R72" s="5">
+        <v>1.68803167343139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
         <v>69</v>
       </c>
       <c r="B73" s="5">
         <v>800</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="5">
         <v>270</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="5">
         <v>379.11</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="1">
         <v>9650</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73" s="5">
         <v>42</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L73" s="5">
         <v>23.928325891494701</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="1">
         <v>9650</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N73" s="5">
         <v>42</v>
       </c>
-      <c r="O73" s="4">
+      <c r="O73" s="5">
         <v>9.2199559211730904</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="P73" s="1">
+        <v>9650</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>42</v>
+      </c>
+      <c r="R73" s="5">
+        <v>1.97939109802246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
         <v>70</v>
       </c>
       <c r="B74" s="5">
         <v>850</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="5">
         <v>299</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="5">
         <v>650.4</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J74" s="1">
         <v>9200</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74" s="5">
         <v>38</v>
       </c>
-      <c r="L74" s="4">
+      <c r="L74" s="5">
         <v>36.580931186675997</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="1">
         <v>9200</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N74" s="5">
         <v>38</v>
       </c>
-      <c r="O74" s="4">
+      <c r="O74" s="5">
         <v>11.588232994079499</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="P74" s="1">
+        <v>9200</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>38</v>
+      </c>
+      <c r="R74" s="5">
+        <v>2.0776374340057302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
         <v>71</v>
       </c>
       <c r="B75" s="5">
         <v>900</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="5">
         <v>318</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="5">
         <v>608.22</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="1">
         <v>13250</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75" s="5">
         <v>41</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L75" s="5">
         <v>47.8712832927703</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="1">
         <v>13250</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N75" s="5">
         <v>41</v>
       </c>
-      <c r="O75" s="4">
+      <c r="O75" s="5">
         <v>13.9234867095947</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="P75" s="1">
+        <v>13250</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>41</v>
+      </c>
+      <c r="R75" s="5">
+        <v>2.4052500724792401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>72</v>
       </c>
       <c r="B76" s="5">
         <v>950</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="5">
         <v>335</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="5">
         <v>472.5</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76" s="1">
         <v>16550</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76" s="5">
         <v>59</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L76" s="5">
         <v>15.5410068035125</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="1">
         <v>16550</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N76" s="5">
         <v>59</v>
       </c>
-      <c r="O76" s="4">
+      <c r="O76" s="5">
         <v>5.5983765125274596</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="P76" s="1">
+        <v>16550</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>59</v>
+      </c>
+      <c r="R76" s="5">
+        <v>2.5449130535125701</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>73</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>1000</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="5">
         <v>346</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2">
+      <c r="F77" s="5">
         <v>660.4</v>
       </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="6">
+      <c r="J77" s="1">
         <v>11800</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="5">
         <v>48</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="5">
         <v>37.548638820648101</v>
       </c>
-      <c r="M77" s="6">
+      <c r="M77" s="1">
         <v>11800</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77" s="5">
         <v>48</v>
       </c>
-      <c r="O77" s="7">
+      <c r="O77" s="5">
         <v>13.231488943099899</v>
       </c>
+      <c r="P77" s="3">
+        <v>11800</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>48</v>
+      </c>
+      <c r="R77" s="5">
+        <v>2.8870551586151101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>74</v>
+      </c>
+      <c r="B78" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C78" s="4">
+        <v>698</v>
+      </c>
+      <c r="P78" s="1">
+        <v>21100</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>86</v>
+      </c>
+      <c r="R78" s="5">
+        <v>11.0191738605499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>75</v>
+      </c>
+      <c r="B79" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1035</v>
+      </c>
+      <c r="P79" s="1">
+        <v>45800</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>166</v>
+      </c>
+      <c r="R79" s="5">
+        <v>23.350006341934201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>76</v>
+      </c>
+      <c r="B80" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1367</v>
+      </c>
+      <c r="P80" s="1">
+        <v>46800</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>180</v>
+      </c>
+      <c r="R80" s="5">
+        <v>42.859586477279599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>77</v>
+      </c>
+      <c r="B81" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1732</v>
+      </c>
+      <c r="P81" s="1">
+        <v>58750</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>229</v>
+      </c>
+      <c r="R81" s="5">
+        <v>66.996360301971393</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnb02\Documents\GitHub\optimization-pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BB33F5-847E-4D19-A4FD-4998C9584F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8409AEDD-A77E-4B9E-B5AD-496CB5241EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4562075E-5FED-4EF8-9270-7E6A2E4D059A}"/>
   </bookViews>
@@ -118,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -127,6 +127,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -134,9 +136,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC59DFEE-2973-4CD7-8077-65E10A48382D}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,31 +482,31 @@
     <row r="1" spans="1:17">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="4" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
@@ -605,13 +604,13 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="5">
         <v>950</v>
       </c>
-      <c r="P3" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -658,13 +657,13 @@
       <c r="N4">
         <v>2.9695030000000001E-3</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="5">
         <v>350</v>
       </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7">
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -711,13 +710,13 @@
       <c r="N5">
         <v>1.949072E-3</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="5">
         <v>450</v>
       </c>
-      <c r="P5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7">
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
         <v>6.9689750671386697E-4</v>
       </c>
     </row>
@@ -731,7 +730,7 @@
       <c r="C6" s="1">
         <v>100</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
@@ -764,13 +763,13 @@
       <c r="N6">
         <v>5.8689119999999996E-3</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="5">
         <v>100</v>
       </c>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7">
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -784,7 +783,7 @@
       <c r="C7" s="1">
         <v>1550</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
@@ -817,13 +816,13 @@
       <c r="N7">
         <v>1.9786360000000002E-3</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="5">
         <v>1550</v>
       </c>
-      <c r="P7" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="P7" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -837,7 +836,7 @@
       <c r="C8" s="1">
         <v>900</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
@@ -870,13 +869,13 @@
       <c r="N8">
         <v>5.8500770000000004E-3</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="5">
         <v>1000</v>
       </c>
-      <c r="P8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7">
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -890,7 +889,7 @@
       <c r="C9" s="1">
         <v>750</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
@@ -923,13 +922,13 @@
       <c r="N9">
         <v>8.3405969999999999E-3</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="5">
         <v>750</v>
       </c>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7">
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -943,7 +942,7 @@
       <c r="C10" s="1">
         <v>550</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
@@ -976,13 +975,13 @@
       <c r="N10">
         <v>9.7994799999999993E-3</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="5">
         <v>700</v>
       </c>
-      <c r="P10" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="7">
+      <c r="P10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="4">
         <v>0</v>
       </c>
     </row>
@@ -996,7 +995,7 @@
       <c r="C11" s="1">
         <v>450</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
@@ -1029,13 +1028,13 @@
       <c r="N11">
         <v>2.5032519999999999E-2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="5">
         <v>450</v>
       </c>
-      <c r="P11" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
         <v>7.9972743988037092E-3</v>
       </c>
     </row>
@@ -1049,7 +1048,7 @@
       <c r="C12" s="1">
         <v>1550</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
@@ -1082,13 +1081,13 @@
       <c r="N12">
         <v>2.1214724000000001E-2</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="5">
         <v>2250</v>
       </c>
-      <c r="P12" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="7">
+      <c r="P12" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="4">
         <v>8.0001354217529297E-3</v>
       </c>
     </row>
@@ -1102,7 +1101,7 @@
       <c r="C13" s="1">
         <v>200</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
@@ -1135,13 +1134,13 @@
       <c r="N13">
         <v>2.4991274000000001E-2</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="5">
         <v>250</v>
       </c>
-      <c r="P13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7">
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1155,7 +1154,7 @@
       <c r="C14" s="1">
         <v>1050</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
@@ -1188,13 +1187,13 @@
       <c r="N14">
         <v>1.6629457E-2</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="5">
         <v>1050</v>
       </c>
-      <c r="P14" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="7">
+      <c r="P14" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1208,7 +1207,7 @@
       <c r="C15" s="1">
         <v>1150</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
@@ -1241,13 +1240,13 @@
       <c r="N15">
         <v>2.0087957E-2</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="5">
         <v>1300</v>
       </c>
-      <c r="P15" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="7">
+      <c r="P15" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1261,7 +1260,7 @@
       <c r="C16" s="1">
         <v>150</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
@@ -1294,13 +1293,13 @@
       <c r="N16">
         <v>6.7300080999999998E-2</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="5">
         <v>150</v>
       </c>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7">
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
         <v>7.9734325408935495E-3</v>
       </c>
     </row>
@@ -1314,7 +1313,7 @@
       <c r="C17" s="1">
         <v>900</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>3</v>
       </c>
       <c r="E17">
@@ -1347,13 +1346,13 @@
       <c r="N17">
         <v>9.8071100000000008E-3</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="5">
         <v>1650</v>
       </c>
-      <c r="P17" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="7">
+      <c r="P17" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1367,7 +1366,7 @@
       <c r="C18" s="1">
         <v>400</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
@@ -1400,13 +1399,13 @@
       <c r="N18">
         <v>7.4065685000000006E-2</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="5">
         <v>400</v>
       </c>
-      <c r="P18" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="7">
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1453,13 +1452,13 @@
       <c r="N19">
         <v>3.9724587999999998E-2</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="5">
         <v>950</v>
       </c>
-      <c r="P19" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="7">
+      <c r="P19" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1473,7 +1472,7 @@
       <c r="C20" s="1">
         <v>350</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
@@ -1506,13 +1505,13 @@
       <c r="N20">
         <v>0.13894271899999999</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="5">
         <v>350</v>
       </c>
-      <c r="P20" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="7">
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1526,7 +1525,7 @@
       <c r="C21" s="1">
         <v>750</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
@@ -1559,13 +1558,13 @@
       <c r="N21">
         <v>0.13269162200000001</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="5">
         <v>750</v>
       </c>
-      <c r="P21" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7">
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
         <v>7.9944133758544905E-3</v>
       </c>
     </row>
@@ -1579,7 +1578,7 @@
       <c r="C22" s="1">
         <v>100</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
@@ -1612,13 +1611,13 @@
       <c r="N22">
         <v>0.20481777200000001</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="5">
         <v>100</v>
       </c>
-      <c r="P22" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="7">
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1632,7 +1631,7 @@
       <c r="C23" s="1">
         <v>400</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
@@ -1665,13 +1664,13 @@
       <c r="N23">
         <v>0.23043656300000001</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="5">
         <v>400</v>
       </c>
-      <c r="P23" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="7">
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1685,7 +1684,7 @@
       <c r="C24" s="1">
         <v>500</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>2</v>
       </c>
       <c r="E24">
@@ -1718,13 +1717,13 @@
       <c r="N24">
         <v>3.8602590999999999E-2</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="5">
         <v>800</v>
       </c>
-      <c r="P24" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="7">
+      <c r="P24" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="4">
         <v>8.1205368041992101E-3</v>
       </c>
     </row>
@@ -1738,7 +1737,7 @@
       <c r="C25" s="1">
         <v>350</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
@@ -1771,13 +1770,13 @@
       <c r="N25">
         <v>0.21517419800000001</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="5">
         <v>350</v>
       </c>
-      <c r="P25" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="7">
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1791,7 +1790,7 @@
       <c r="C26" s="1">
         <v>600</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>2</v>
       </c>
       <c r="E26">
@@ -1824,13 +1823,13 @@
       <c r="N26">
         <v>0.226473331</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="5">
         <v>700</v>
       </c>
-      <c r="P26" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="7">
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
         <v>7.9960823059081997E-3</v>
       </c>
     </row>
@@ -1844,7 +1843,7 @@
       <c r="C27" s="1">
         <v>150</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
@@ -1877,13 +1876,13 @@
       <c r="N27">
         <v>0.28120064700000003</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="5">
         <v>150</v>
       </c>
-      <c r="P27" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="7">
+      <c r="P27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
         <v>8.0680847167968698E-3</v>
       </c>
     </row>
@@ -1897,7 +1896,7 @@
       <c r="C28" s="1">
         <v>900</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28">
         <v>3</v>
       </c>
       <c r="E28">
@@ -1930,13 +1929,13 @@
       <c r="N28">
         <v>3.4128904000000002E-2</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="5">
         <v>900</v>
       </c>
-      <c r="P28" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="7">
+      <c r="P28" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="4">
         <v>7.9960823059081997E-3</v>
       </c>
     </row>
@@ -1950,7 +1949,7 @@
       <c r="C29" s="1">
         <v>550</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
@@ -1983,13 +1982,13 @@
       <c r="N29">
         <v>0.29540205000000003</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="5">
         <v>550</v>
       </c>
-      <c r="P29" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="7">
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
         <v>1.5623331069946201E-2</v>
       </c>
     </row>
@@ -2003,7 +2002,7 @@
       <c r="C30" s="1">
         <v>1200</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <v>2</v>
       </c>
       <c r="E30">
@@ -2036,13 +2035,13 @@
       <c r="N30">
         <v>0.160005808</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="5">
         <v>1200</v>
       </c>
-      <c r="P30" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="7">
+      <c r="P30" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="4">
         <v>7.9977512359619106E-3</v>
       </c>
     </row>
@@ -2056,7 +2055,7 @@
       <c r="C31" s="1">
         <v>350</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
@@ -2089,13 +2088,13 @@
       <c r="N31">
         <v>8.4477662999999995E-2</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="5">
         <v>350</v>
       </c>
-      <c r="P31" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="7">
+      <c r="P31" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="4">
         <v>4.7686100006103498E-3</v>
       </c>
     </row>
@@ -2109,7 +2108,7 @@
       <c r="C32" s="1">
         <v>750</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32">
         <v>2</v>
       </c>
       <c r="E32">
@@ -2142,13 +2141,13 @@
       <c r="N32">
         <v>0.17640423799999999</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="5">
         <v>750</v>
       </c>
-      <c r="P32" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="7">
+      <c r="P32" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2162,7 +2161,7 @@
       <c r="C33" s="1">
         <v>1550</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33">
         <v>3</v>
       </c>
       <c r="E33">
@@ -2195,13 +2194,13 @@
       <c r="N33">
         <v>4.6861409999999999E-2</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="5">
         <v>1600</v>
       </c>
-      <c r="P33" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="7">
+      <c r="P33" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2215,7 +2214,7 @@
       <c r="C34" s="1">
         <v>1200</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34">
         <v>4</v>
       </c>
       <c r="E34">
@@ -2248,13 +2247,13 @@
       <c r="N34">
         <v>3.5030365000000001E-2</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="5">
         <v>1200</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="4">
         <v>4</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="Q34" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2268,7 +2267,7 @@
       <c r="C35" s="1">
         <v>750</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35">
         <v>2</v>
       </c>
       <c r="E35">
@@ -2301,13 +2300,13 @@
       <c r="N35">
         <v>6.6898583999999997E-2</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="5">
         <v>900</v>
       </c>
-      <c r="P35" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="7">
+      <c r="P35" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2321,7 +2320,7 @@
       <c r="C36" s="1">
         <v>1050</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
         <v>3</v>
       </c>
       <c r="E36">
@@ -2354,13 +2353,13 @@
       <c r="N36">
         <v>0.158968687</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="5">
         <v>1050</v>
       </c>
-      <c r="P36" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="7">
+      <c r="P36" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="4">
         <v>8.0368518829345703E-3</v>
       </c>
     </row>
@@ -2374,7 +2373,7 @@
       <c r="C37" s="1">
         <v>2850</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37">
         <v>5</v>
       </c>
       <c r="E37">
@@ -2407,13 +2406,13 @@
       <c r="N37">
         <v>2.6436567000000001E-2</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="5">
         <v>3200</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="4">
         <v>5</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="4">
         <v>7.99560546875E-3</v>
       </c>
     </row>
@@ -2427,7 +2426,7 @@
       <c r="C38" s="1">
         <v>1250</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
@@ -2460,13 +2459,13 @@
       <c r="N38">
         <v>0.101480722</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="5">
         <v>1250</v>
       </c>
-      <c r="P38" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="7">
+      <c r="P38" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2480,7 +2479,7 @@
       <c r="C39" s="1">
         <v>600</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
@@ -2489,7 +2488,7 @@
       <c r="F39" s="1">
         <v>2750</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <v>7</v>
       </c>
       <c r="H39">
@@ -2513,13 +2512,13 @@
       <c r="N39">
         <v>0.657149553</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="5">
         <v>600</v>
       </c>
-      <c r="P39" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="7">
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2533,7 +2532,7 @@
       <c r="C40" s="1">
         <v>700</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40">
         <v>4</v>
       </c>
       <c r="E40">
@@ -2566,13 +2565,13 @@
       <c r="N40">
         <v>6.8228960000000005E-2</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="5">
         <v>700</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="4">
         <v>4</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="4">
         <v>8.5062980651855399E-3</v>
       </c>
     </row>
@@ -2586,7 +2585,7 @@
       <c r="C41" s="1">
         <v>1050</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41">
         <v>3</v>
       </c>
       <c r="E41">
@@ -2619,13 +2618,13 @@
       <c r="N41">
         <v>0.101677895</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="5">
         <v>1100</v>
       </c>
-      <c r="P41" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="7">
+      <c r="P41" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="4">
         <v>2.50601768493652E-3</v>
       </c>
     </row>
@@ -2639,7 +2638,7 @@
       <c r="C42" s="1">
         <v>400</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42">
         <v>2</v>
       </c>
       <c r="E42">
@@ -2672,13 +2671,13 @@
       <c r="N42">
         <v>0.76820468900000005</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="5">
         <v>1000</v>
       </c>
-      <c r="P42" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="7">
+      <c r="P42" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="4">
         <v>8.0020427703857405E-3</v>
       </c>
     </row>
@@ -2692,7 +2691,7 @@
       <c r="C43" s="1">
         <v>950</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43">
         <v>3</v>
       </c>
       <c r="E43">
@@ -2716,13 +2715,13 @@
       <c r="N43">
         <v>7.9833745999999997E-2</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="5">
         <v>950</v>
       </c>
-      <c r="P43" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="7">
+      <c r="P43" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="4">
         <v>8.0509185791015608E-3</v>
       </c>
     </row>
@@ -2736,7 +2735,7 @@
       <c r="C44" s="1">
         <v>1150</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44">
         <v>4</v>
       </c>
       <c r="E44">
@@ -2769,13 +2768,13 @@
       <c r="N44">
         <v>0.14585018199999999</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="5">
         <v>1150</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="4">
         <v>4</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="4">
         <v>7.99560546875E-3</v>
       </c>
     </row>
@@ -2789,7 +2788,7 @@
       <c r="C45" s="1">
         <v>650</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45">
         <v>4</v>
       </c>
       <c r="E45">
@@ -2822,13 +2821,13 @@
       <c r="N45">
         <v>0.149364948</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="5">
         <v>700</v>
       </c>
-      <c r="P45" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="7">
+      <c r="P45" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="4">
         <v>7.9946517944335903E-3</v>
       </c>
     </row>
@@ -2842,10 +2841,10 @@
       <c r="C46" s="1">
         <v>1000</v>
       </c>
-      <c r="D46" s="6">
-        <v>3</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
         <v>600.256947599</v>
       </c>
       <c r="I46" s="1">
@@ -2866,13 +2865,13 @@
       <c r="N46">
         <v>0.38808322000000001</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="5">
         <v>1250</v>
       </c>
-      <c r="P46" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="7">
+      <c r="P46" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="4">
         <v>8.0561637878417899E-3</v>
       </c>
     </row>
@@ -2886,10 +2885,10 @@
       <c r="C47" s="1">
         <v>600</v>
       </c>
-      <c r="D47" s="6">
-        <v>3</v>
-      </c>
-      <c r="E47" s="6">
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
         <v>600.145226869</v>
       </c>
       <c r="I47" s="1">
@@ -2910,13 +2909,13 @@
       <c r="N47">
         <v>0.18448567399999999</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O47" s="5">
         <v>600</v>
       </c>
-      <c r="P47" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="7">
+      <c r="P47" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2930,10 +2929,10 @@
       <c r="C48" s="1">
         <v>1750</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48">
         <v>5</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48">
         <v>600.25296446499999</v>
       </c>
       <c r="I48" s="1">
@@ -2954,13 +2953,13 @@
       <c r="N48">
         <v>6.0032368000000003E-2</v>
       </c>
-      <c r="O48" s="8">
+      <c r="O48" s="5">
         <v>1750</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="4">
         <v>5</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="4">
         <v>7.0984363555908203E-3</v>
       </c>
     </row>
@@ -2974,10 +2973,10 @@
       <c r="C49" s="1">
         <v>1750</v>
       </c>
-      <c r="D49" s="6">
-        <v>3</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
         <v>600.12478569300004</v>
       </c>
       <c r="I49" s="1">
@@ -2998,13 +2997,13 @@
       <c r="N49">
         <v>0.124463558</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O49" s="5">
         <v>2000</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="4">
         <v>5</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3018,10 +3017,10 @@
       <c r="C50" s="1">
         <v>1750</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50">
         <v>600.32569874499995</v>
       </c>
       <c r="I50" s="1">
@@ -3042,13 +3041,13 @@
       <c r="N50">
         <v>0.17885637300000001</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O50" s="5">
         <v>1750</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="4">
         <v>4</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="Q50" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3062,10 +3061,10 @@
       <c r="C51" s="1">
         <v>650</v>
       </c>
-      <c r="D51" s="6">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
         <v>600.36545896200005</v>
       </c>
       <c r="F51" s="1">
@@ -3095,13 +3094,13 @@
       <c r="N51">
         <v>1.131172657</v>
       </c>
-      <c r="O51" s="8">
+      <c r="O51" s="5">
         <v>950</v>
       </c>
-      <c r="P51" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="7">
+      <c r="P51" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="4">
         <v>7.9994201660156198E-3</v>
       </c>
     </row>
@@ -3115,10 +3114,10 @@
       <c r="C52" s="1">
         <v>2500</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52">
         <v>4</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52">
         <v>600.48548965800001</v>
       </c>
       <c r="I52" s="1">
@@ -3139,13 +3138,13 @@
       <c r="N52">
         <v>0.115195036</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O52" s="5">
         <v>2600</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P52" s="4">
         <v>5</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="Q52" s="4">
         <v>1.4503955841064399E-2</v>
       </c>
     </row>
@@ -3159,10 +3158,10 @@
       <c r="C53" s="1">
         <v>2350</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53">
         <v>4</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53">
         <v>600.33645259800005</v>
       </c>
       <c r="I53" s="1">
@@ -3183,13 +3182,13 @@
       <c r="N53">
         <v>0.15585088699999999</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O53" s="5">
         <v>2550</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53" s="4">
         <v>6</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53" s="4">
         <v>1.56292915344238E-2</v>
       </c>
     </row>
@@ -3203,10 +3202,10 @@
       <c r="C54" s="1">
         <v>1050</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54">
         <v>4</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54">
         <v>600.36547556200003</v>
       </c>
       <c r="I54" s="1">
@@ -3227,13 +3226,13 @@
       <c r="N54">
         <v>0.48560690899999998</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O54" s="5">
         <v>1150</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="4">
         <v>5</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="Q54" s="4">
         <v>2.71449089050292E-2</v>
       </c>
     </row>
@@ -3244,6 +3243,15 @@
       <c r="B55">
         <v>44</v>
       </c>
+      <c r="C55" s="1">
+        <v>2300</v>
+      </c>
+      <c r="D55" s="8">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>601.821700534</v>
+      </c>
       <c r="I55" s="1">
         <v>2300</v>
       </c>
@@ -3262,13 +3270,13 @@
       <c r="N55">
         <v>0.69099474000000005</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="5">
         <v>2300</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="4">
         <v>7</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="Q55" s="4">
         <v>4.6868324279785101E-2</v>
       </c>
     </row>
@@ -3279,6 +3287,15 @@
       <c r="B56">
         <v>53</v>
       </c>
+      <c r="C56" s="1">
+        <v>3700</v>
+      </c>
+      <c r="D56" s="8">
+        <v>12</v>
+      </c>
+      <c r="E56" s="8">
+        <v>600.32158785599995</v>
+      </c>
       <c r="I56" s="1">
         <v>3700</v>
       </c>
@@ -3297,13 +3314,13 @@
       <c r="N56">
         <v>0.44492983800000002</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O56" s="5">
         <v>3700</v>
       </c>
-      <c r="P56" s="7">
+      <c r="P56" s="4">
         <v>12</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="Q56" s="4">
         <v>7.2292566299438393E-2</v>
       </c>
     </row>
@@ -3314,6 +3331,15 @@
       <c r="B57">
         <v>64</v>
       </c>
+      <c r="C57" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D57" s="8">
+        <v>7</v>
+      </c>
+      <c r="E57" s="8">
+        <v>600.23656684499997</v>
+      </c>
       <c r="I57" s="1">
         <v>1700</v>
       </c>
@@ -3332,13 +3358,13 @@
       <c r="N57">
         <v>2.1509902479999998</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O57" s="5">
         <v>1700</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="4">
         <v>7</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="4">
         <v>9.4929695129394503E-2</v>
       </c>
     </row>
@@ -3349,6 +3375,15 @@
       <c r="B58">
         <v>72</v>
       </c>
+      <c r="C58" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D58" s="8">
+        <v>15</v>
+      </c>
+      <c r="E58" s="8">
+        <v>600.75625849300002</v>
+      </c>
       <c r="I58" s="1">
         <v>4200</v>
       </c>
@@ -3367,13 +3402,13 @@
       <c r="N58">
         <v>1.487483025</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O58" s="5">
         <v>4200</v>
       </c>
-      <c r="P58" s="7">
+      <c r="P58" s="4">
         <v>15</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="Q58" s="4">
         <v>0.105751991271972</v>
       </c>
     </row>
@@ -3402,13 +3437,13 @@
       <c r="N59">
         <v>7.2805364130000001</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O59" s="5">
         <v>3450</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="4">
         <v>8</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q59" s="4">
         <v>0.17430996894836401</v>
       </c>
     </row>
@@ -3437,13 +3472,13 @@
       <c r="N60">
         <v>1.7662229540000001</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O60" s="5">
         <v>6050</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P60" s="4">
         <v>17</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="Q60" s="4">
         <v>0.20695829391479401</v>
       </c>
     </row>
@@ -3472,13 +3507,13 @@
       <c r="N61">
         <v>3.489786863</v>
       </c>
-      <c r="O61" s="8">
+      <c r="O61" s="5">
         <v>4450</v>
       </c>
-      <c r="P61" s="7">
+      <c r="P61" s="4">
         <v>13</v>
       </c>
-      <c r="Q61" s="7">
+      <c r="Q61" s="4">
         <v>0.26171517372131298</v>
       </c>
     </row>
@@ -3507,13 +3542,13 @@
       <c r="N62">
         <v>3.0132937430000002</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O62" s="5">
         <v>4000</v>
       </c>
-      <c r="P62" s="7">
+      <c r="P62" s="4">
         <v>16</v>
       </c>
-      <c r="Q62" s="7">
+      <c r="Q62" s="4">
         <v>0.34276914596557601</v>
       </c>
     </row>
@@ -3542,13 +3577,13 @@
       <c r="N63">
         <v>5.3875899309999999</v>
       </c>
-      <c r="O63" s="8">
+      <c r="O63" s="5">
         <v>3150</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63" s="4">
         <v>12</v>
       </c>
-      <c r="Q63" s="7">
+      <c r="Q63" s="4">
         <v>0.35789012908935502</v>
       </c>
     </row>
@@ -3577,13 +3612,13 @@
       <c r="N64">
         <v>2.230346441</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O64" s="5">
         <v>5950</v>
       </c>
-      <c r="P64" s="7">
+      <c r="P64" s="4">
         <v>22</v>
       </c>
-      <c r="Q64" s="7">
+      <c r="Q64" s="4">
         <v>0.489820957183837</v>
       </c>
     </row>
@@ -3612,13 +3647,13 @@
       <c r="N65">
         <v>5.7921328540000001</v>
       </c>
-      <c r="O65" s="8">
+      <c r="O65" s="5">
         <v>6150</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65" s="4">
         <v>21</v>
       </c>
-      <c r="Q65" s="7">
+      <c r="Q65" s="4">
         <v>0.81455516815185502</v>
       </c>
     </row>
@@ -3647,13 +3682,13 @@
       <c r="N66">
         <v>1.822741508</v>
       </c>
-      <c r="O66" s="8">
+      <c r="O66" s="5">
         <v>8400</v>
       </c>
-      <c r="P66" s="7">
+      <c r="P66" s="4">
         <v>35</v>
       </c>
-      <c r="Q66" s="7">
+      <c r="Q66" s="4">
         <v>0.69761443138122503</v>
       </c>
     </row>
@@ -3682,13 +3717,13 @@
       <c r="N67">
         <v>4.240164042</v>
       </c>
-      <c r="O67" s="8">
+      <c r="O67" s="5">
         <v>6850</v>
       </c>
-      <c r="P67" s="7">
+      <c r="P67" s="4">
         <v>27</v>
       </c>
-      <c r="Q67" s="7">
+      <c r="Q67" s="4">
         <v>0.83691072463989202</v>
       </c>
     </row>
@@ -3717,13 +3752,13 @@
       <c r="N68">
         <v>7.9856061939999998</v>
       </c>
-      <c r="O68" s="8">
+      <c r="O68" s="5">
         <v>8250</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P68" s="4">
         <v>29</v>
       </c>
-      <c r="Q68" s="7">
+      <c r="Q68" s="4">
         <v>1.1232097148895199</v>
       </c>
     </row>
@@ -3752,13 +3787,13 @@
       <c r="N69">
         <v>15.841815710000001</v>
       </c>
-      <c r="O69" s="8">
+      <c r="O69" s="5">
         <v>7150</v>
       </c>
-      <c r="P69" s="7">
+      <c r="P69" s="4">
         <v>28</v>
       </c>
-      <c r="Q69" s="7">
+      <c r="Q69" s="4">
         <v>1.32506299018859</v>
       </c>
     </row>
@@ -3787,13 +3822,13 @@
       <c r="N70">
         <v>6.9883046149999997</v>
       </c>
-      <c r="O70" s="8">
+      <c r="O70" s="5">
         <v>8800</v>
       </c>
-      <c r="P70" s="7">
+      <c r="P70" s="4">
         <v>34</v>
       </c>
-      <c r="Q70" s="7">
+      <c r="Q70" s="4">
         <v>1.72599124908447</v>
       </c>
     </row>
@@ -3822,13 +3857,13 @@
       <c r="N71">
         <v>5.6083662509999996</v>
       </c>
-      <c r="O71" s="8">
+      <c r="O71" s="5">
         <v>13350</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="4">
         <v>42</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="Q71" s="4">
         <v>1.68803167343139</v>
       </c>
     </row>
@@ -3857,13 +3892,13 @@
       <c r="N72">
         <v>7.2059817309999996</v>
       </c>
-      <c r="O72" s="8">
+      <c r="O72" s="5">
         <v>9650</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72" s="4">
         <v>42</v>
       </c>
-      <c r="Q72" s="7">
+      <c r="Q72" s="4">
         <v>1.97939109802246</v>
       </c>
     </row>
@@ -3892,13 +3927,13 @@
       <c r="N73">
         <v>10.021227359999999</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O73" s="5">
         <v>9200</v>
       </c>
-      <c r="P73" s="7">
+      <c r="P73" s="4">
         <v>38</v>
       </c>
-      <c r="Q73" s="7">
+      <c r="Q73" s="4">
         <v>2.0776374340057302</v>
       </c>
     </row>
@@ -3927,13 +3962,13 @@
       <c r="N74">
         <v>11.30334234</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O74" s="5">
         <v>13250</v>
       </c>
-      <c r="P74" s="7">
+      <c r="P74" s="4">
         <v>41</v>
       </c>
-      <c r="Q74" s="7">
+      <c r="Q74" s="4">
         <v>2.4052500724792401</v>
       </c>
     </row>
@@ -3962,13 +3997,13 @@
       <c r="N75">
         <v>4.7668471339999998</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O75" s="5">
         <v>16550</v>
       </c>
-      <c r="P75" s="7">
+      <c r="P75" s="4">
         <v>59</v>
       </c>
-      <c r="Q75" s="7">
+      <c r="Q75" s="4">
         <v>2.5449130535125701</v>
       </c>
     </row>
@@ -3997,81 +4032,81 @@
       <c r="N76">
         <v>11.60867953</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O76" s="5">
         <v>11800</v>
       </c>
-      <c r="P76" s="7">
+      <c r="P76" s="4">
         <v>48</v>
       </c>
-      <c r="Q76" s="7">
+      <c r="Q76" s="4">
         <v>2.8870551586151101</v>
       </c>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="9">
+      <c r="A77" s="4">
         <v>2000</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="4">
         <v>698</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O77" s="5">
         <v>21100</v>
       </c>
-      <c r="P77" s="7">
+      <c r="P77" s="4">
         <v>86</v>
       </c>
-      <c r="Q77" s="7">
+      <c r="Q77" s="4">
         <v>11.0191738605499</v>
       </c>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="9">
+      <c r="A78" s="4">
         <v>3000</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="4">
         <v>1035</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O78" s="5">
         <v>45800</v>
       </c>
-      <c r="P78" s="7">
+      <c r="P78" s="4">
         <v>166</v>
       </c>
-      <c r="Q78" s="7">
+      <c r="Q78" s="4">
         <v>23.350006341934201</v>
       </c>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="9">
+      <c r="A79" s="4">
         <v>4000</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="4">
         <v>1367</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O79" s="5">
         <v>46800</v>
       </c>
-      <c r="P79" s="7">
+      <c r="P79" s="4">
         <v>180</v>
       </c>
-      <c r="Q79" s="7">
+      <c r="Q79" s="4">
         <v>42.859586477279599</v>
       </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="9">
+      <c r="A80" s="4">
         <v>5000</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="4">
         <v>1732</v>
       </c>
-      <c r="O80" s="8">
+      <c r="O80" s="5">
         <v>58750</v>
       </c>
-      <c r="P80" s="7">
+      <c r="P80" s="4">
         <v>229</v>
       </c>
-      <c r="Q80" s="7">
+      <c r="Q80" s="4">
         <v>66.996360301971393</v>
       </c>
     </row>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnb02\Documents\GitHub\optimization-pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8409AEDD-A77E-4B9E-B5AD-496CB5241EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF92743-81DD-4F88-870B-B0356686ED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4562075E-5FED-4EF8-9270-7E6A2E4D059A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4562075E-5FED-4EF8-9270-7E6A2E4D059A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -135,7 +135,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3246,7 +3245,7 @@
       <c r="C55" s="1">
         <v>2300</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55">
         <v>7</v>
       </c>
       <c r="E55">
@@ -3290,10 +3289,10 @@
       <c r="C56" s="1">
         <v>3700</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56">
         <v>12</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56">
         <v>600.32158785599995</v>
       </c>
       <c r="I56" s="1">
@@ -3334,10 +3333,10 @@
       <c r="C57" s="1">
         <v>1700</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57">
         <v>7</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57">
         <v>600.23656684499997</v>
       </c>
       <c r="I57" s="1">
@@ -3378,10 +3377,10 @@
       <c r="C58" s="1">
         <v>4200</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58">
         <v>15</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58">
         <v>600.75625849300002</v>
       </c>
       <c r="I58" s="1">
